--- a/config_debug/act_ty_fkqjd_config.xlsx
+++ b/config_debug/act_ty_fkqjd_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -115,17 +115,6 @@
     <t>"",</t>
   </si>
   <si>
-    <t>hlqjd_029_hlqjd_v1</t>
-  </si>
-  <si>
-    <t>hlqjd_029_hlqjd_v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hlqjd_029_hlqjd_v8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"金币*</t>
     </r>
@@ -734,6 +723,18 @@
   <si>
     <t>"fkqjd_icon_d2","zjd_icon_d2","zjd_icon_d3","zjd_icon_d4","zjd_icon_d5","zjd_icon_d1"</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden_egg_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden_egg_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden_egg_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1160,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1230,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1257,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -2412,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -2443,10 +2444,10 @@
         <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -2474,10 +2475,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -2886,10 +2887,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2922,10 +2923,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2956,10 +2957,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3441,10 +3442,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3472,10 +3473,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3503,10 +3504,10 @@
         <v>198</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3591,10 +3592,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3627,10 +3628,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3661,10 +3662,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3753,10 +3754,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3784,10 +3785,10 @@
         <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3815,10 +3816,10 @@
         <v>498</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3845,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3903,10 +3904,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3939,10 +3940,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3973,10 +3974,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>

--- a/config_debug/act_ty_fkqjd_config.xlsx
+++ b/config_debug/act_ty_fkqjd_config.xlsx
@@ -725,15 +725,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>golden_egg_1</t>
+    <t>actp_buy_gift_bag_class_golden_egg_1</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_golden_egg_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>golden_egg_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>golden_egg_3</t>
+    <t>actp_buy_gift_bag_class_golden_egg_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1162,12 +1161,12 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
